--- a/SmartMedTelegram/src/media/data/examples/Сравнительный_анализ_пример.xlsx
+++ b/SmartMedTelegram/src/media/data/examples/Сравнительный_анализ_пример.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/askolenko/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/askolenko/PycharmProjects/SmartMed/SmartMedTelegram/src/media/data/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC2950-3003-1342-8FDE-F24B82B2A0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326E33B3-1B03-714E-9CBC-E9704E3B47F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="21">
-  <si>
-    <t>Номер</t>
-  </si>
   <si>
     <t>Возраст</t>
   </si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>жен</t>
+  </si>
+  <si>
+    <t>Номер пациента</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -471,37 +471,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -512,13 +512,13 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>310</v>
@@ -533,10 +533,10 @@
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -547,13 +547,13 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>350</v>
@@ -568,10 +568,10 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -582,13 +582,13 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>280</v>
@@ -603,10 +603,10 @@
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -617,13 +617,13 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
         <v>300</v>
@@ -638,10 +638,10 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -652,13 +652,13 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
         <v>200</v>
@@ -673,10 +673,10 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -687,13 +687,13 @@
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>200</v>
@@ -708,10 +708,10 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -722,13 +722,13 @@
         <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>280</v>
@@ -743,10 +743,10 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -757,13 +757,13 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1">
         <v>390</v>
@@ -775,10 +775,10 @@
         <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -789,13 +789,13 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
         <v>230</v>
@@ -810,10 +810,10 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -824,13 +824,13 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>500</v>
@@ -845,10 +845,10 @@
         <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -859,13 +859,13 @@
         <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1">
         <v>150</v>
@@ -880,10 +880,10 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -894,13 +894,13 @@
         <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1">
         <v>210</v>
@@ -915,10 +915,10 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -929,13 +929,13 @@
         <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1">
         <v>480</v>
@@ -950,10 +950,10 @@
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -964,13 +964,13 @@
         <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1">
         <v>280</v>
@@ -985,10 +985,10 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -999,13 +999,13 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1">
         <v>280</v>
@@ -1020,10 +1020,10 @@
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1034,13 +1034,13 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1">
         <v>180</v>
@@ -1055,10 +1055,10 @@
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1069,13 +1069,13 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="1">
         <v>420</v>
@@ -1090,10 +1090,10 @@
         <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1104,13 +1104,13 @@
         <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1">
         <v>260</v>
@@ -1125,10 +1125,10 @@
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1139,13 +1139,13 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
         <v>360</v>
@@ -1154,10 +1154,10 @@
         <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1168,13 +1168,13 @@
         <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1">
         <v>50</v>
@@ -1189,10 +1189,10 @@
         <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1203,13 +1203,13 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1">
         <v>230</v>
@@ -1224,10 +1224,10 @@
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1238,13 +1238,13 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1">
         <v>370</v>
@@ -1259,10 +1259,10 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1273,13 +1273,13 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="1">
         <v>320</v>
@@ -1294,10 +1294,10 @@
         <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1308,13 +1308,13 @@
         <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1">
         <v>150</v>
@@ -1329,10 +1329,10 @@
         <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1343,13 +1343,13 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1">
         <v>100</v>
@@ -1364,10 +1364,10 @@
         <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1378,13 +1378,13 @@
         <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="1">
         <v>150</v>
@@ -1399,10 +1399,10 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1413,13 +1413,13 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1">
         <v>320</v>
@@ -1434,10 +1434,10 @@
         <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1448,13 +1448,13 @@
         <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1">
         <v>70</v>
@@ -1469,10 +1469,10 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1483,13 +1483,13 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="1">
         <v>270</v>
@@ -1504,10 +1504,10 @@
         <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1518,13 +1518,13 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1">
         <v>190</v>
@@ -1539,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1553,13 +1553,13 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1">
         <v>340</v>
@@ -1574,10 +1574,10 @@
         <v>12</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1588,13 +1588,13 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1">
         <v>340</v>
@@ -1609,10 +1609,10 @@
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1623,13 +1623,13 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1">
         <v>420</v>
@@ -1644,10 +1644,10 @@
         <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1658,13 +1658,13 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1">
         <v>330</v>
@@ -1679,10 +1679,10 @@
         <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1693,13 +1693,13 @@
         <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" s="1">
         <v>350</v>
@@ -1714,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1728,13 +1728,13 @@
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1">
         <v>240</v>
@@ -1749,10 +1749,10 @@
         <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1763,13 +1763,13 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1">
         <v>210</v>
@@ -1784,10 +1784,10 @@
         <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1798,13 +1798,13 @@
         <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1">
         <v>450</v>
@@ -1819,10 +1819,10 @@
         <v>10</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1833,13 +1833,13 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1">
         <v>440</v>
@@ -1854,10 +1854,10 @@
         <v>11</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1868,13 +1868,13 @@
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="1">
         <v>160</v>
@@ -1889,10 +1889,10 @@
         <v>10</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1903,13 +1903,13 @@
         <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="1">
         <v>320</v>
@@ -1924,10 +1924,10 @@
         <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1938,13 +1938,13 @@
         <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="1">
         <v>320</v>
@@ -1959,10 +1959,10 @@
         <v>12</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1973,13 +1973,13 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="1">
         <v>300</v>
@@ -1994,10 +1994,10 @@
         <v>16</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2008,13 +2008,13 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" s="1">
         <v>120</v>
@@ -2029,10 +2029,10 @@
         <v>15</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2043,13 +2043,13 @@
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1">
         <v>470</v>
@@ -2064,10 +2064,10 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2078,13 +2078,13 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1">
         <v>260</v>
@@ -2099,10 +2099,10 @@
         <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2113,13 +2113,13 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1">
         <v>200</v>
@@ -2134,10 +2134,10 @@
         <v>22</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2148,13 +2148,13 @@
         <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="1">
         <v>220</v>
@@ -2169,10 +2169,10 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2183,13 +2183,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" s="1">
         <v>160</v>
@@ -2204,10 +2204,10 @@
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2218,13 +2218,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="1">
         <v>350</v>
@@ -2239,10 +2239,10 @@
         <v>24</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2253,13 +2253,13 @@
         <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" s="1">
         <v>100</v>
@@ -2274,10 +2274,10 @@
         <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2288,13 +2288,13 @@
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1">
         <v>260</v>
@@ -2309,10 +2309,10 @@
         <v>20</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2323,13 +2323,13 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" s="1">
         <v>400</v>
@@ -2344,10 +2344,10 @@
         <v>17</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2358,13 +2358,13 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1">
         <v>300</v>
@@ -2379,10 +2379,10 @@
         <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2393,13 +2393,13 @@
         <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1">
         <v>200</v>
@@ -2414,10 +2414,10 @@
         <v>19</v>
       </c>
       <c r="J56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2428,13 +2428,13 @@
         <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" s="1">
         <v>340</v>
@@ -2449,10 +2449,10 @@
         <v>15</v>
       </c>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2463,13 +2463,13 @@
         <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1">
         <v>310</v>
@@ -2484,10 +2484,10 @@
         <v>22</v>
       </c>
       <c r="J58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2498,13 +2498,13 @@
         <v>34</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59" s="1">
         <v>450</v>
@@ -2519,10 +2519,10 @@
         <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2533,13 +2533,13 @@
         <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" s="1">
         <v>300</v>
@@ -2554,10 +2554,10 @@
         <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2568,13 +2568,13 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1">
         <v>250</v>
@@ -2589,10 +2589,10 @@
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2603,13 +2603,13 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1">
         <v>450</v>
@@ -2624,10 +2624,10 @@
         <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2638,13 +2638,13 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63" s="1">
         <v>300</v>
@@ -2659,10 +2659,10 @@
         <v>15</v>
       </c>
       <c r="J63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2673,13 +2673,13 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1">
         <v>360</v>
@@ -2694,10 +2694,10 @@
         <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2708,13 +2708,13 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F65" s="1">
         <v>240</v>
@@ -2729,10 +2729,10 @@
         <v>12</v>
       </c>
       <c r="J65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2743,13 +2743,13 @@
         <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1">
         <v>230</v>
@@ -2764,10 +2764,10 @@
         <v>16</v>
       </c>
       <c r="J66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2778,13 +2778,13 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67" s="1">
         <v>130</v>
@@ -2799,10 +2799,10 @@
         <v>10</v>
       </c>
       <c r="J67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2813,13 +2813,13 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1">
         <v>370</v>
@@ -2834,10 +2834,10 @@
         <v>13</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2848,13 +2848,13 @@
         <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1">
         <v>410</v>
@@ -2869,10 +2869,10 @@
         <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2883,13 +2883,13 @@
         <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F70" s="1">
         <v>350</v>
@@ -2904,10 +2904,10 @@
         <v>10</v>
       </c>
       <c r="J70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2918,13 +2918,13 @@
         <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" s="1">
         <v>400</v>
@@ -2939,10 +2939,10 @@
         <v>15</v>
       </c>
       <c r="J71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
